--- a/OpenData/IsoAlpha/ISOAlphaContryCrossTable.xlsx
+++ b/OpenData/IsoAlpha/ISOAlphaContryCrossTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Downloads\OpenData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Downloads\OpenData\IsoAlpha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68146B6-C409-4452-9857-3061CBEEDA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F31EA8-0826-46DD-AA34-829AC2D6BB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="22230" windowHeight="14340" tabRatio="850" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="1065" windowWidth="22230" windowHeight="14340" tabRatio="850" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WDICountry" sheetId="3" r:id="rId1"/>
@@ -23188,11 +23188,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C724EAD-8F7E-46FC-869C-E3795BE79DD3}">
-  <dimension ref="A1:K237"/>
+  <dimension ref="A1:J237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F241" sqref="F241"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23207,8 +23207,6 @@
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -29867,7 +29865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>5100</v>
       </c>
@@ -29899,7 +29897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>5200</v>
       </c>
@@ -29929,7 +29927,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>5400</v>
       </c>
@@ -29958,9 +29956,8 @@
       <c r="J211" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="K211" s="1"/>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>5500</v>
       </c>
@@ -29989,9 +29986,8 @@
       <c r="J212" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="K212" s="1"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>5500</v>
       </c>
@@ -30022,9 +30018,8 @@
       <c r="J213" s="1" t="s">
         <v>1591</v>
       </c>
-      <c r="K213" s="1"/>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>5500</v>
       </c>
@@ -30053,9 +30048,8 @@
       <c r="J214" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="K214" s="1"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>5500</v>
       </c>
@@ -30086,9 +30080,8 @@
       <c r="J215" s="1" t="s">
         <v>1593</v>
       </c>
-      <c r="K215" s="1"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>5500</v>
       </c>
@@ -30119,9 +30112,8 @@
       <c r="J216" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="K216" s="1"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>5400</v>
       </c>
@@ -30152,9 +30144,8 @@
       <c r="J217" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="K217" s="1"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>5500</v>
       </c>
@@ -30185,9 +30176,8 @@
       <c r="J218" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="K218" s="1"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>5500</v>
       </c>
@@ -30218,9 +30208,8 @@
       <c r="J219" s="1" t="s">
         <v>1597</v>
       </c>
-      <c r="K219" s="1"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>5200</v>
       </c>
@@ -30251,9 +30240,8 @@
       <c r="J220" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="K220" s="1"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>5200</v>
       </c>
@@ -30284,9 +30272,8 @@
       <c r="J221" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="K221" s="1"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>5200</v>
       </c>
@@ -30317,9 +30304,8 @@
       <c r="J222" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="K222" s="1"/>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>5400</v>
       </c>
@@ -30350,9 +30336,8 @@
       <c r="J223" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="K223" s="1"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>5200</v>
       </c>
@@ -30383,9 +30368,8 @@
       <c r="J224" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="K224" s="1"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>5400</v>
       </c>
@@ -30416,9 +30400,8 @@
       <c r="J225" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="K225" s="1"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>5400</v>
       </c>
@@ -30449,9 +30432,8 @@
       <c r="J226" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="K226" s="1"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>5400</v>
       </c>
@@ -30482,9 +30464,8 @@
       <c r="J227" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="K227" s="1"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>5300</v>
       </c>
@@ -30515,9 +30496,8 @@
       <c r="J228" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="K228" s="1"/>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>5400</v>
       </c>
@@ -30548,9 +30528,8 @@
       <c r="J229" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="K229" s="1"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>5400</v>
       </c>
@@ -30581,9 +30560,8 @@
       <c r="J230" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="K230" s="1"/>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>5400</v>
       </c>
@@ -30614,9 +30592,8 @@
       <c r="J231" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="K231" s="1"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>5400</v>
       </c>
@@ -30647,9 +30624,8 @@
       <c r="J232" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="K232" s="1"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>5300</v>
       </c>
@@ -30680,9 +30656,8 @@
       <c r="J233" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="K233" s="1"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>5200</v>
       </c>
@@ -30713,9 +30688,8 @@
       <c r="J234" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="K234" s="1"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>5200</v>
       </c>
@@ -30746,9 +30720,8 @@
       <c r="J235" s="1" t="s">
         <v>1611</v>
       </c>
-      <c r="K235" s="1"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>5200</v>
       </c>
@@ -30779,9 +30752,8 @@
       <c r="J236" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="K236" s="1"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>5200</v>
       </c>
@@ -30812,7 +30784,6 @@
       <c r="J237" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="K237" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/OpenData/IsoAlpha/ISOAlphaContryCrossTable.xlsx
+++ b/OpenData/IsoAlpha/ISOAlphaContryCrossTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Downloads\OpenData\IsoAlpha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F31EA8-0826-46DD-AA34-829AC2D6BB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB3FDF9-C729-4643-9B10-C537F0121C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="1065" windowWidth="22230" windowHeight="14340" tabRatio="850" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="850" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WDICountry" sheetId="3" r:id="rId1"/>
@@ -5208,7 +5208,14 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3B4EF6DE-071E-42B3-8487-1BF8594EFCCD}" name="ISOAlpaCode7" displayName="ISOAlpaCode7" ref="A1:J237" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J237" xr:uid="{49DD9734-D0E9-4100-91DD-AD84DBEA17B2}"/>
+  <autoFilter ref="A1:J237" xr:uid="{49DD9734-D0E9-4100-91DD-AD84DBEA17B2}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="GUM"/>
+        <filter val="GUY"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{66AA749E-8963-4184-BB1C-524958A69228}" uniqueName="1" name="CodeContinentFAO" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{94FBA038-14A3-4B09-A568-282CD0C8242D}" uniqueName="2" name="ContinentFr" queryTableFieldId="2" dataDxfId="6"/>
@@ -23190,8 +23197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C724EAD-8F7E-46FC-869C-E3795BE79DD3}">
   <dimension ref="A1:J237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -23241,7 +23248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5300</v>
       </c>
@@ -23273,7 +23280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5400</v>
       </c>
@@ -23305,7 +23312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5100</v>
       </c>
@@ -23337,7 +23344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5400</v>
       </c>
@@ -23369,7 +23376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5100</v>
       </c>
@@ -23401,7 +23408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5200</v>
       </c>
@@ -23433,7 +23440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5400</v>
       </c>
@@ -23465,7 +23472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5300</v>
       </c>
@@ -23497,7 +23504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5300</v>
       </c>
@@ -23529,7 +23536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5200</v>
       </c>
@@ -23561,7 +23568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5300</v>
       </c>
@@ -23593,7 +23600,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5500</v>
       </c>
@@ -23625,7 +23632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5400</v>
       </c>
@@ -23657,7 +23664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5300</v>
       </c>
@@ -23689,7 +23696,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5200</v>
       </c>
@@ -23721,7 +23728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5300</v>
       </c>
@@ -23753,7 +23760,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5300</v>
       </c>
@@ -23785,7 +23792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5100</v>
       </c>
@@ -23817,7 +23824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5200</v>
       </c>
@@ -23849,7 +23856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5400</v>
       </c>
@@ -23881,7 +23888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5400</v>
       </c>
@@ -23913,7 +23920,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5400</v>
       </c>
@@ -23945,7 +23952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5100</v>
       </c>
@@ -23977,7 +23984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5100</v>
       </c>
@@ -24009,7 +24016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5200</v>
       </c>
@@ -24041,7 +24048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5400</v>
       </c>
@@ -24073,7 +24080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5200</v>
       </c>
@@ -24105,7 +24112,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5300</v>
       </c>
@@ -24137,7 +24144,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5400</v>
       </c>
@@ -24169,7 +24176,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5200</v>
       </c>
@@ -24201,7 +24208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5100</v>
       </c>
@@ -24233,7 +24240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5200</v>
       </c>
@@ -24265,7 +24272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5300</v>
       </c>
@@ -24297,7 +24304,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5100</v>
       </c>
@@ -24329,7 +24336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5300</v>
       </c>
@@ -24361,7 +24368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5100</v>
       </c>
@@ -24393,7 +24400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5100</v>
       </c>
@@ -24425,7 +24432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5200</v>
       </c>
@@ -24457,7 +24464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5200</v>
       </c>
@@ -24489,7 +24496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5400</v>
       </c>
@@ -24521,7 +24528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5300</v>
       </c>
@@ -24553,7 +24560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5300</v>
       </c>
@@ -24585,7 +24592,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5300</v>
       </c>
@@ -24617,7 +24624,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5300</v>
       </c>
@@ -24649,7 +24656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5300</v>
       </c>
@@ -24681,7 +24688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5100</v>
       </c>
@@ -24713,7 +24720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5100</v>
       </c>
@@ -24745,7 +24752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5300</v>
       </c>
@@ -24777,7 +24784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5100</v>
       </c>
@@ -24809,7 +24816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5200</v>
       </c>
@@ -24841,7 +24848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5100</v>
       </c>
@@ -24873,7 +24880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5200</v>
       </c>
@@ -24905,7 +24912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5400</v>
       </c>
@@ -24937,7 +24944,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5200</v>
       </c>
@@ -24969,7 +24976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5400</v>
       </c>
@@ -25001,7 +25008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5100</v>
       </c>
@@ -25033,7 +25040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5200</v>
       </c>
@@ -25065,7 +25072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5400</v>
       </c>
@@ -25097,7 +25104,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5400</v>
       </c>
@@ -25129,7 +25136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5100</v>
       </c>
@@ -25161,7 +25168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5200</v>
       </c>
@@ -25193,7 +25200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5200</v>
       </c>
@@ -25225,7 +25232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5100</v>
       </c>
@@ -25257,7 +25264,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5200</v>
       </c>
@@ -25289,7 +25296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5400</v>
       </c>
@@ -25321,7 +25328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5400</v>
       </c>
@@ -25353,7 +25360,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5100</v>
       </c>
@@ -25385,7 +25392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5100</v>
       </c>
@@ -25417,7 +25424,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5400</v>
       </c>
@@ -25449,7 +25456,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5400</v>
       </c>
@@ -25481,7 +25488,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5500</v>
       </c>
@@ -25513,7 +25520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5400</v>
       </c>
@@ -25545,7 +25552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5400</v>
       </c>
@@ -25577,7 +25584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5100</v>
       </c>
@@ -25609,7 +25616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5100</v>
       </c>
@@ -25641,7 +25648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5300</v>
       </c>
@@ -25673,7 +25680,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5100</v>
       </c>
@@ -25705,7 +25712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5400</v>
       </c>
@@ -25737,7 +25744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5200</v>
       </c>
@@ -25769,7 +25776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5200</v>
       </c>
@@ -25801,7 +25808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5100</v>
       </c>
@@ -25833,7 +25840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5100</v>
       </c>
@@ -25865,7 +25872,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5100</v>
       </c>
@@ -25897,7 +25904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5300</v>
       </c>
@@ -25961,7 +25968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5200</v>
       </c>
@@ -25993,7 +26000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5400</v>
       </c>
@@ -26025,7 +26032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5200</v>
       </c>
@@ -26057,7 +26064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5400</v>
       </c>
@@ -26089,7 +26096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5500</v>
       </c>
@@ -26121,7 +26128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5300</v>
       </c>
@@ -26153,7 +26160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5300</v>
       </c>
@@ -26185,7 +26192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5300</v>
       </c>
@@ -26217,7 +26224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5300</v>
       </c>
@@ -26249,7 +26256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5400</v>
       </c>
@@ -26281,7 +26288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5400</v>
       </c>
@@ -26313,7 +26320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5300</v>
       </c>
@@ -26345,7 +26352,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5400</v>
       </c>
@@ -26377,7 +26384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5200</v>
       </c>
@@ -26409,7 +26416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5300</v>
       </c>
@@ -26441,7 +26448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5300</v>
       </c>
@@ -26473,7 +26480,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5300</v>
       </c>
@@ -26505,7 +26512,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5100</v>
       </c>
@@ -26537,7 +26544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5300</v>
       </c>
@@ -26569,7 +26576,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5500</v>
       </c>
@@ -26601,7 +26608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5300</v>
       </c>
@@ -26633,7 +26640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5100</v>
       </c>
@@ -26665,7 +26672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5400</v>
       </c>
@@ -26697,7 +26704,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5300</v>
       </c>
@@ -26729,7 +26736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5100</v>
       </c>
@@ -26761,7 +26768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5100</v>
       </c>
@@ -26793,7 +26800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5400</v>
       </c>
@@ -26825,7 +26832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5400</v>
       </c>
@@ -26857,7 +26864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5400</v>
       </c>
@@ -26889,7 +26896,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5100</v>
       </c>
@@ -26921,7 +26928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5300</v>
       </c>
@@ -26953,7 +26960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5100</v>
       </c>
@@ -26985,7 +26992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5300</v>
       </c>
@@ -27017,7 +27024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5100</v>
       </c>
@@ -27049,7 +27056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5400</v>
       </c>
@@ -27081,7 +27088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5100</v>
       </c>
@@ -27113,7 +27120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5100</v>
       </c>
@@ -27145,7 +27152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5100</v>
       </c>
@@ -27177,7 +27184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5200</v>
       </c>
@@ -27209,7 +27216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5300</v>
       </c>
@@ -27241,7 +27248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5400</v>
       </c>
@@ -27273,7 +27280,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5400</v>
       </c>
@@ -27305,7 +27312,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5100</v>
       </c>
@@ -27337,7 +27344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5300</v>
       </c>
@@ -27369,7 +27376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5100</v>
       </c>
@@ -27401,7 +27408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5200</v>
       </c>
@@ -27433,7 +27440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5300</v>
       </c>
@@ -27465,7 +27472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>5300</v>
       </c>
@@ -27497,7 +27504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>5200</v>
       </c>
@@ -27529,7 +27536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>5100</v>
       </c>
@@ -27561,7 +27568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>5100</v>
       </c>
@@ -27593,7 +27600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>5300</v>
       </c>
@@ -27625,7 +27632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>5400</v>
       </c>
@@ -27657,7 +27664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>5500</v>
       </c>
@@ -27689,7 +27696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>5500</v>
       </c>
@@ -27721,7 +27728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>5300</v>
       </c>
@@ -27753,7 +27760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5200</v>
       </c>
@@ -27785,7 +27792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5300</v>
       </c>
@@ -27817,7 +27824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>5300</v>
       </c>
@@ -27849,7 +27856,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>5300</v>
       </c>
@@ -27881,7 +27888,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5300</v>
       </c>
@@ -27913,7 +27920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>5200</v>
       </c>
@@ -27945,7 +27952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>5500</v>
       </c>
@@ -27977,7 +27984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5200</v>
       </c>
@@ -28009,7 +28016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5400</v>
       </c>
@@ -28041,7 +28048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>5200</v>
       </c>
@@ -28073,7 +28080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>5300</v>
       </c>
@@ -28105,7 +28112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>5400</v>
       </c>
@@ -28137,7 +28144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>5500</v>
       </c>
@@ -28169,7 +28176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>5200</v>
       </c>
@@ -28201,7 +28208,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>5400</v>
       </c>
@@ -28233,7 +28240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>5300</v>
       </c>
@@ -28265,7 +28272,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>5400</v>
       </c>
@@ -28297,7 +28304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>5400</v>
       </c>
@@ -28329,7 +28336,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>5500</v>
       </c>
@@ -28361,7 +28368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>5300</v>
       </c>
@@ -28393,7 +28400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>5400</v>
       </c>
@@ -28425,7 +28432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>5100</v>
       </c>
@@ -28457,7 +28464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>5100</v>
       </c>
@@ -28489,7 +28496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>5400</v>
       </c>
@@ -28521,7 +28528,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>5100</v>
       </c>
@@ -28553,7 +28560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5300</v>
       </c>
@@ -28585,7 +28592,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>5100</v>
       </c>
@@ -28617,7 +28624,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>5100</v>
       </c>
@@ -28649,7 +28656,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>5100</v>
       </c>
@@ -28681,7 +28688,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>5100</v>
       </c>
@@ -28713,7 +28720,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>5500</v>
       </c>
@@ -28745,7 +28752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>5500</v>
       </c>
@@ -28777,7 +28784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>5400</v>
       </c>
@@ -28809,7 +28816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>5100</v>
       </c>
@@ -28841,7 +28848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>5200</v>
       </c>
@@ -28873,7 +28880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>5400</v>
       </c>
@@ -28905,7 +28912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>5400</v>
       </c>
@@ -28937,7 +28944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>5400</v>
       </c>
@@ -28969,7 +28976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>5100</v>
       </c>
@@ -29001,7 +29008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>5100</v>
       </c>
@@ -29033,7 +29040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>5300</v>
       </c>
@@ -29065,7 +29072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>5100</v>
       </c>
@@ -29097,7 +29104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>5100</v>
       </c>
@@ -29129,7 +29136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>5300</v>
       </c>
@@ -29161,7 +29168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>5300</v>
       </c>
@@ -29193,7 +29200,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>5300</v>
       </c>
@@ -29225,7 +29232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>5300</v>
       </c>
@@ -29257,7 +29264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>5500</v>
       </c>
@@ -29289,7 +29296,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>5200</v>
       </c>
@@ -29321,7 +29328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>5100</v>
       </c>
@@ -29353,7 +29360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>5300</v>
       </c>
@@ -29385,7 +29392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>5500</v>
       </c>
@@ -29417,7 +29424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>5100</v>
       </c>
@@ -29449,7 +29456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>5100</v>
       </c>
@@ -29481,7 +29488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5400</v>
       </c>
@@ -29513,7 +29520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>5200</v>
       </c>
@@ -29545,7 +29552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>5200</v>
       </c>
@@ -29577,7 +29584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>5300</v>
       </c>
@@ -29609,7 +29616,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>5200</v>
       </c>
@@ -29641,7 +29648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>5200</v>
       </c>
@@ -29673,7 +29680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>5300</v>
       </c>
@@ -29705,7 +29712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>5500</v>
       </c>
@@ -29737,7 +29744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>5500</v>
       </c>
@@ -29769,7 +29776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>5300</v>
       </c>
@@ -29801,7 +29808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>5100</v>
       </c>
@@ -29833,7 +29840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>5100</v>
       </c>
@@ -29865,7 +29872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>5100</v>
       </c>
@@ -29897,7 +29904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>5200</v>
       </c>
@@ -29927,7 +29934,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>5400</v>
       </c>
@@ -29957,7 +29964,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>5500</v>
       </c>
@@ -29987,7 +29994,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>5500</v>
       </c>
@@ -30019,7 +30026,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>5500</v>
       </c>
@@ -30049,7 +30056,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>5500</v>
       </c>
@@ -30081,7 +30088,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>5500</v>
       </c>
@@ -30113,7 +30120,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>5400</v>
       </c>
@@ -30145,7 +30152,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>5500</v>
       </c>
@@ -30177,7 +30184,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>5500</v>
       </c>
@@ -30209,7 +30216,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>5200</v>
       </c>
@@ -30241,7 +30248,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>5200</v>
       </c>
@@ -30273,7 +30280,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>5200</v>
       </c>
@@ -30305,7 +30312,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>5400</v>
       </c>
@@ -30337,7 +30344,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>5200</v>
       </c>
@@ -30369,7 +30376,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>5400</v>
       </c>
@@ -30401,7 +30408,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>5400</v>
       </c>
@@ -30433,7 +30440,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>5400</v>
       </c>
@@ -30497,7 +30504,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>5400</v>
       </c>
@@ -30529,7 +30536,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>5400</v>
       </c>
@@ -30561,7 +30568,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>5400</v>
       </c>
@@ -30593,7 +30600,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>5400</v>
       </c>
@@ -30625,7 +30632,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>5300</v>
       </c>
@@ -30657,7 +30664,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>5200</v>
       </c>
@@ -30689,7 +30696,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>5200</v>
       </c>
@@ -30721,7 +30728,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>5200</v>
       </c>
@@ -30753,7 +30760,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>5200</v>
       </c>

--- a/OpenData/IsoAlpha/ISOAlphaContryCrossTable.xlsx
+++ b/OpenData/IsoAlpha/ISOAlphaContryCrossTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Downloads\OpenData\IsoAlpha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB3FDF9-C729-4643-9B10-C537F0121C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E842CE-210E-4E08-A5BB-F97538FB9B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="850" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5935" uniqueCount="1616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5916" uniqueCount="1615">
   <si>
     <t>CodeContinentFAO</t>
   </si>
@@ -4806,9 +4806,6 @@
   </si>
   <si>
     <t>FAOZoneCode</t>
-  </si>
-  <si>
-    <t>WBD</t>
   </si>
   <si>
     <t>World Bank data :   Royaume-Uni de Grande-Bretagne et d'Irlande du Nord  GBR</t>
@@ -5208,14 +5205,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3B4EF6DE-071E-42B3-8487-1BF8594EFCCD}" name="ISOAlpaCode7" displayName="ISOAlpaCode7" ref="A1:J237" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J237" xr:uid="{49DD9734-D0E9-4100-91DD-AD84DBEA17B2}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="GUM"/>
-        <filter val="GUY"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J237" xr:uid="{49DD9734-D0E9-4100-91DD-AD84DBEA17B2}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{66AA749E-8963-4184-BB1C-524958A69228}" uniqueName="1" name="CodeContinentFAO" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{94FBA038-14A3-4B09-A568-282CD0C8242D}" uniqueName="2" name="ContinentFr" queryTableFieldId="2" dataDxfId="6"/>
@@ -23199,7 +23189,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23233,22 +23223,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G1" t="s">
         <v>1586</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1587</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5300</v>
       </c>
@@ -23280,7 +23270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5400</v>
       </c>
@@ -23312,7 +23302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5100</v>
       </c>
@@ -23344,7 +23334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5400</v>
       </c>
@@ -23376,7 +23366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5100</v>
       </c>
@@ -23408,7 +23398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5200</v>
       </c>
@@ -23440,7 +23430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5400</v>
       </c>
@@ -23472,7 +23462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5300</v>
       </c>
@@ -23504,7 +23494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5300</v>
       </c>
@@ -23536,7 +23526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5200</v>
       </c>
@@ -23568,7 +23558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5300</v>
       </c>
@@ -23600,7 +23590,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5500</v>
       </c>
@@ -23632,7 +23622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5400</v>
       </c>
@@ -23664,7 +23654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5300</v>
       </c>
@@ -23696,7 +23686,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5200</v>
       </c>
@@ -23728,7 +23718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5300</v>
       </c>
@@ -23760,7 +23750,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5300</v>
       </c>
@@ -23792,7 +23782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5100</v>
       </c>
@@ -23824,7 +23814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5200</v>
       </c>
@@ -23856,7 +23846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5400</v>
       </c>
@@ -23888,7 +23878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5400</v>
       </c>
@@ -23920,7 +23910,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5400</v>
       </c>
@@ -23952,7 +23942,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5100</v>
       </c>
@@ -23984,7 +23974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5100</v>
       </c>
@@ -24016,7 +24006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5200</v>
       </c>
@@ -24048,7 +24038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5400</v>
       </c>
@@ -24080,7 +24070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5200</v>
       </c>
@@ -24112,7 +24102,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5300</v>
       </c>
@@ -24144,7 +24134,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5400</v>
       </c>
@@ -24176,7 +24166,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5200</v>
       </c>
@@ -24208,7 +24198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5100</v>
       </c>
@@ -24240,7 +24230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5200</v>
       </c>
@@ -24272,7 +24262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5300</v>
       </c>
@@ -24304,7 +24294,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5100</v>
       </c>
@@ -24336,7 +24326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5300</v>
       </c>
@@ -24368,7 +24358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5100</v>
       </c>
@@ -24400,7 +24390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5100</v>
       </c>
@@ -24432,7 +24422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5200</v>
       </c>
@@ -24464,7 +24454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5200</v>
       </c>
@@ -24496,7 +24486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5400</v>
       </c>
@@ -24528,7 +24518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5300</v>
       </c>
@@ -24560,7 +24550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5300</v>
       </c>
@@ -24592,7 +24582,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5300</v>
       </c>
@@ -24624,7 +24614,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5300</v>
       </c>
@@ -24656,7 +24646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5300</v>
       </c>
@@ -24688,7 +24678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5100</v>
       </c>
@@ -24720,7 +24710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5100</v>
       </c>
@@ -24752,7 +24742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5300</v>
       </c>
@@ -24784,7 +24774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5100</v>
       </c>
@@ -24816,7 +24806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5200</v>
       </c>
@@ -24848,7 +24838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5100</v>
       </c>
@@ -24880,7 +24870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5200</v>
       </c>
@@ -24912,7 +24902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5400</v>
       </c>
@@ -24944,7 +24934,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5200</v>
       </c>
@@ -24976,7 +24966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5400</v>
       </c>
@@ -25008,7 +24998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5100</v>
       </c>
@@ -25040,7 +25030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5200</v>
       </c>
@@ -25072,7 +25062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5400</v>
       </c>
@@ -25104,7 +25094,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5400</v>
       </c>
@@ -25136,7 +25126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5100</v>
       </c>
@@ -25168,7 +25158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5200</v>
       </c>
@@ -25200,7 +25190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5200</v>
       </c>
@@ -25232,7 +25222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5100</v>
       </c>
@@ -25264,7 +25254,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5200</v>
       </c>
@@ -25296,7 +25286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5400</v>
       </c>
@@ -25328,7 +25318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5400</v>
       </c>
@@ -25360,7 +25350,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5100</v>
       </c>
@@ -25392,7 +25382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5100</v>
       </c>
@@ -25424,7 +25414,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5400</v>
       </c>
@@ -25456,7 +25446,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5400</v>
       </c>
@@ -25488,7 +25478,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5500</v>
       </c>
@@ -25520,7 +25510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5400</v>
       </c>
@@ -25552,7 +25542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5400</v>
       </c>
@@ -25584,7 +25574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5100</v>
       </c>
@@ -25616,7 +25606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5100</v>
       </c>
@@ -25648,7 +25638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5300</v>
       </c>
@@ -25680,7 +25670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5100</v>
       </c>
@@ -25712,7 +25702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5400</v>
       </c>
@@ -25744,7 +25734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5200</v>
       </c>
@@ -25776,7 +25766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5200</v>
       </c>
@@ -25808,7 +25798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5100</v>
       </c>
@@ -25840,7 +25830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5100</v>
       </c>
@@ -25872,7 +25862,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5100</v>
       </c>
@@ -25904,7 +25894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5300</v>
       </c>
@@ -25968,7 +25958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5200</v>
       </c>
@@ -26000,7 +25990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5400</v>
       </c>
@@ -26032,7 +26022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5200</v>
       </c>
@@ -26064,7 +26054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5400</v>
       </c>
@@ -26096,7 +26086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5500</v>
       </c>
@@ -26128,7 +26118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5300</v>
       </c>
@@ -26160,7 +26150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5300</v>
       </c>
@@ -26192,7 +26182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5300</v>
       </c>
@@ -26224,7 +26214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5300</v>
       </c>
@@ -26256,7 +26246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5400</v>
       </c>
@@ -26288,7 +26278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5400</v>
       </c>
@@ -26320,7 +26310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5300</v>
       </c>
@@ -26352,7 +26342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5400</v>
       </c>
@@ -26384,7 +26374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5200</v>
       </c>
@@ -26416,7 +26406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5300</v>
       </c>
@@ -26448,7 +26438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5300</v>
       </c>
@@ -26480,7 +26470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5300</v>
       </c>
@@ -26512,7 +26502,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5100</v>
       </c>
@@ -26544,7 +26534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5300</v>
       </c>
@@ -26576,7 +26566,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5500</v>
       </c>
@@ -26608,7 +26598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5300</v>
       </c>
@@ -26640,7 +26630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5100</v>
       </c>
@@ -26672,7 +26662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5400</v>
       </c>
@@ -26704,7 +26694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5300</v>
       </c>
@@ -26736,7 +26726,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5100</v>
       </c>
@@ -26768,7 +26758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5100</v>
       </c>
@@ -26800,7 +26790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5400</v>
       </c>
@@ -26832,7 +26822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5400</v>
       </c>
@@ -26864,7 +26854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5400</v>
       </c>
@@ -26896,7 +26886,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5100</v>
       </c>
@@ -26928,7 +26918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5300</v>
       </c>
@@ -26960,7 +26950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5100</v>
       </c>
@@ -26992,7 +26982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5300</v>
       </c>
@@ -27024,7 +27014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5100</v>
       </c>
@@ -27056,7 +27046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5400</v>
       </c>
@@ -27088,7 +27078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5100</v>
       </c>
@@ -27120,7 +27110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5100</v>
       </c>
@@ -27152,7 +27142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5100</v>
       </c>
@@ -27184,7 +27174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5200</v>
       </c>
@@ -27216,7 +27206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5300</v>
       </c>
@@ -27248,7 +27238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5400</v>
       </c>
@@ -27280,7 +27270,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5400</v>
       </c>
@@ -27312,7 +27302,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5100</v>
       </c>
@@ -27344,7 +27334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5300</v>
       </c>
@@ -27376,7 +27366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5100</v>
       </c>
@@ -27408,7 +27398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5200</v>
       </c>
@@ -27440,7 +27430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5300</v>
       </c>
@@ -27472,7 +27462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>5300</v>
       </c>
@@ -27504,7 +27494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>5200</v>
       </c>
@@ -27536,7 +27526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>5100</v>
       </c>
@@ -27568,7 +27558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>5100</v>
       </c>
@@ -27600,7 +27590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>5300</v>
       </c>
@@ -27632,7 +27622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>5400</v>
       </c>
@@ -27664,7 +27654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>5500</v>
       </c>
@@ -27696,7 +27686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>5500</v>
       </c>
@@ -27728,7 +27718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>5300</v>
       </c>
@@ -27760,7 +27750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5200</v>
       </c>
@@ -27792,7 +27782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5300</v>
       </c>
@@ -27824,7 +27814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>5300</v>
       </c>
@@ -27856,7 +27846,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>5300</v>
       </c>
@@ -27888,7 +27878,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5300</v>
       </c>
@@ -27920,7 +27910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>5200</v>
       </c>
@@ -27952,7 +27942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>5500</v>
       </c>
@@ -27984,7 +27974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5200</v>
       </c>
@@ -28016,7 +28006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5400</v>
       </c>
@@ -28048,7 +28038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>5200</v>
       </c>
@@ -28080,7 +28070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>5300</v>
       </c>
@@ -28112,7 +28102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>5400</v>
       </c>
@@ -28144,7 +28134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>5500</v>
       </c>
@@ -28176,7 +28166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>5200</v>
       </c>
@@ -28208,7 +28198,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>5400</v>
       </c>
@@ -28240,7 +28230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>5300</v>
       </c>
@@ -28272,7 +28262,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>5400</v>
       </c>
@@ -28304,7 +28294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>5400</v>
       </c>
@@ -28336,7 +28326,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>5500</v>
       </c>
@@ -28368,7 +28358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>5300</v>
       </c>
@@ -28400,7 +28390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>5400</v>
       </c>
@@ -28432,7 +28422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>5100</v>
       </c>
@@ -28464,7 +28454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>5100</v>
       </c>
@@ -28496,7 +28486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>5400</v>
       </c>
@@ -28528,7 +28518,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>5100</v>
       </c>
@@ -28560,7 +28550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5300</v>
       </c>
@@ -28592,7 +28582,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>5100</v>
       </c>
@@ -28624,7 +28614,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>5100</v>
       </c>
@@ -28656,7 +28646,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>5100</v>
       </c>
@@ -28688,7 +28678,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>5100</v>
       </c>
@@ -28720,7 +28710,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>5500</v>
       </c>
@@ -28752,7 +28742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>5500</v>
       </c>
@@ -28784,7 +28774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>5400</v>
       </c>
@@ -28816,7 +28806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>5100</v>
       </c>
@@ -28848,7 +28838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>5200</v>
       </c>
@@ -28880,7 +28870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>5400</v>
       </c>
@@ -28912,7 +28902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>5400</v>
       </c>
@@ -28944,7 +28934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>5400</v>
       </c>
@@ -28976,7 +28966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>5100</v>
       </c>
@@ -29008,7 +28998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>5100</v>
       </c>
@@ -29040,7 +29030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>5300</v>
       </c>
@@ -29072,7 +29062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>5100</v>
       </c>
@@ -29104,7 +29094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>5100</v>
       </c>
@@ -29136,7 +29126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>5300</v>
       </c>
@@ -29168,7 +29158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>5300</v>
       </c>
@@ -29200,7 +29190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>5300</v>
       </c>
@@ -29232,7 +29222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>5300</v>
       </c>
@@ -29264,7 +29254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>5500</v>
       </c>
@@ -29296,7 +29286,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>5200</v>
       </c>
@@ -29328,7 +29318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>5100</v>
       </c>
@@ -29360,7 +29350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>5300</v>
       </c>
@@ -29392,7 +29382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>5500</v>
       </c>
@@ -29424,7 +29414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>5100</v>
       </c>
@@ -29456,7 +29446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>5100</v>
       </c>
@@ -29488,7 +29478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5400</v>
       </c>
@@ -29520,7 +29510,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>5200</v>
       </c>
@@ -29552,7 +29542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>5200</v>
       </c>
@@ -29584,7 +29574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>5300</v>
       </c>
@@ -29616,7 +29606,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>5200</v>
       </c>
@@ -29648,7 +29638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>5200</v>
       </c>
@@ -29680,7 +29670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>5300</v>
       </c>
@@ -29712,7 +29702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>5500</v>
       </c>
@@ -29744,7 +29734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>5500</v>
       </c>
@@ -29776,7 +29766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>5300</v>
       </c>
@@ -29808,7 +29798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>5100</v>
       </c>
@@ -29840,7 +29830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>5100</v>
       </c>
@@ -29872,7 +29862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>5100</v>
       </c>
@@ -29904,7 +29894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>5200</v>
       </c>
@@ -29917,9 +29907,7 @@
       <c r="D210" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E210" s="2" t="s">
-        <v>1575</v>
-      </c>
+      <c r="E210" s="2"/>
       <c r="F210" s="1" t="s">
         <v>443</v>
       </c>
@@ -29931,10 +29919,10 @@
       </c>
       <c r="I210" s="1"/>
       <c r="J210" s="1" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>5400</v>
       </c>
@@ -29961,10 +29949,10 @@
       </c>
       <c r="I211" s="1"/>
       <c r="J211" s="1" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>5500</v>
       </c>
@@ -29991,10 +29979,10 @@
       </c>
       <c r="I212" s="1"/>
       <c r="J212" s="1" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>5500</v>
       </c>
@@ -30023,10 +30011,10 @@
         <v>504</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>5500</v>
       </c>
@@ -30053,10 +30041,10 @@
       </c>
       <c r="I214" s="1"/>
       <c r="J214" s="1" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>5500</v>
       </c>
@@ -30085,10 +30073,10 @@
         <v>478</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>5500</v>
       </c>
@@ -30117,10 +30105,10 @@
         <v>504</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>5400</v>
       </c>
@@ -30133,9 +30121,6 @@
       <c r="D217" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E217" t="s">
-        <v>1575</v>
-      </c>
       <c r="F217" s="1" t="s">
         <v>459</v>
       </c>
@@ -30149,10 +30134,10 @@
         <v>478</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>5500</v>
       </c>
@@ -30181,10 +30166,10 @@
         <v>504</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>5500</v>
       </c>
@@ -30213,10 +30198,10 @@
         <v>504</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>5200</v>
       </c>
@@ -30229,9 +30214,6 @@
       <c r="D220" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E220" t="s">
-        <v>1575</v>
-      </c>
       <c r="F220" s="1" t="s">
         <v>474</v>
       </c>
@@ -30245,10 +30227,10 @@
         <v>478</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>5200</v>
       </c>
@@ -30261,9 +30243,6 @@
       <c r="D221" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E221" t="s">
-        <v>1575</v>
-      </c>
       <c r="F221" s="1" t="s">
         <v>1409</v>
       </c>
@@ -30277,10 +30256,10 @@
         <v>478</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>5200</v>
       </c>
@@ -30293,9 +30272,6 @@
       <c r="D222" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E222" t="s">
-        <v>1575</v>
-      </c>
       <c r="F222" s="1" t="s">
         <v>678</v>
       </c>
@@ -30309,10 +30285,10 @@
         <v>478</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>5400</v>
       </c>
@@ -30325,9 +30301,6 @@
       <c r="D223" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E223" t="s">
-        <v>1575</v>
-      </c>
       <c r="F223" s="1" t="s">
         <v>626</v>
       </c>
@@ -30341,10 +30314,10 @@
         <v>478</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>5200</v>
       </c>
@@ -30357,9 +30330,6 @@
       <c r="D224" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E224" t="s">
-        <v>1575</v>
-      </c>
       <c r="F224" s="1" t="s">
         <v>674</v>
       </c>
@@ -30373,10 +30343,10 @@
         <v>478</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>5400</v>
       </c>
@@ -30389,11 +30359,8 @@
       <c r="D225" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E225" t="s">
-        <v>1575</v>
-      </c>
       <c r="F225" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>776</v>
@@ -30405,10 +30372,10 @@
         <v>478</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>5400</v>
       </c>
@@ -30421,14 +30388,11 @@
       <c r="D226" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E226" t="s">
-        <v>1575</v>
-      </c>
       <c r="F226" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>796</v>
@@ -30437,10 +30401,10 @@
         <v>478</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>5400</v>
       </c>
@@ -30457,7 +30421,7 @@
         <v>85</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>823</v>
@@ -30469,7 +30433,7 @@
         <v>478</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -30485,9 +30449,6 @@
       <c r="D228" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E228" t="s">
-        <v>1575</v>
-      </c>
       <c r="F228" s="1" t="s">
         <v>830</v>
       </c>
@@ -30495,16 +30456,16 @@
         <v>830</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>478</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>5400</v>
       </c>
@@ -30517,11 +30478,8 @@
       <c r="D229" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E229" t="s">
-        <v>1575</v>
-      </c>
       <c r="F229" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>889</v>
@@ -30533,10 +30491,10 @@
         <v>478</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>5400</v>
       </c>
@@ -30549,9 +30507,6 @@
       <c r="D230" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E230" t="s">
-        <v>1575</v>
-      </c>
       <c r="F230" s="1" t="s">
         <v>1430</v>
       </c>
@@ -30565,10 +30520,10 @@
         <v>504</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>5400</v>
       </c>
@@ -30581,9 +30536,6 @@
       <c r="D231" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E231" t="s">
-        <v>1575</v>
-      </c>
       <c r="F231" s="1" t="s">
         <v>992</v>
       </c>
@@ -30597,10 +30549,10 @@
         <v>478</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>5400</v>
       </c>
@@ -30613,9 +30565,6 @@
       <c r="D232" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E232" t="s">
-        <v>1575</v>
-      </c>
       <c r="F232" s="1" t="s">
         <v>449</v>
       </c>
@@ -30629,10 +30578,10 @@
         <v>478</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>5300</v>
       </c>
@@ -30645,9 +30594,6 @@
       <c r="D233" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E233" t="s">
-        <v>1575</v>
-      </c>
       <c r="F233" s="1" t="s">
         <v>1088</v>
       </c>
@@ -30661,10 +30607,10 @@
         <v>478</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>5200</v>
       </c>
@@ -30677,9 +30623,6 @@
       <c r="D234" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E234" t="s">
-        <v>1575</v>
-      </c>
       <c r="F234" s="1" t="s">
         <v>1305</v>
       </c>
@@ -30693,10 +30636,10 @@
         <v>478</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>5200</v>
       </c>
@@ -30709,14 +30652,11 @@
       <c r="D235" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E235" t="s">
-        <v>1575</v>
-      </c>
       <c r="F235" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>1028</v>
@@ -30725,10 +30665,10 @@
         <v>478</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>5200</v>
       </c>
@@ -30741,14 +30681,11 @@
       <c r="D236" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E236" t="s">
-        <v>1575</v>
-      </c>
       <c r="F236" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>1314</v>
@@ -30757,10 +30694,10 @@
         <v>478</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>5200</v>
       </c>
@@ -30773,11 +30710,8 @@
       <c r="D237" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E237" t="s">
-        <v>1575</v>
-      </c>
       <c r="F237" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>1413</v>
@@ -30789,7 +30723,7 @@
         <v>478</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
   </sheetData>
